--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.35/avg_0.003_scores.xlsx
@@ -112,13 +112,13 @@
     <t>help</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>care</t>
@@ -1229,25 +1229,25 @@
         <v>29</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L12">
         <v>174</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1331,25 +1331,25 @@
         <v>32</v>
       </c>
       <c r="K15">
-        <v>0.6779141104294478</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L15">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="M15">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1357,25 +1357,25 @@
         <v>33</v>
       </c>
       <c r="K16">
-        <v>0.6739130434782609</v>
+        <v>0.6567164179104478</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="N16">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1383,25 +1383,25 @@
         <v>34</v>
       </c>
       <c r="K17">
-        <v>0.6567164179104478</v>
+        <v>0.65</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="N17">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="10:17">
